--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F0_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F0_relay_banshee.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1065" yWindow="-330" windowWidth="28830" windowHeight="5100"/>
+    <workbookView xWindow="-1068" yWindow="-336" windowWidth="28836" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relays!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relays!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>VRMSLL</t>
   </si>
@@ -65,6 +65,29 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>81RFDFP
+[Hz]</t>
+  </si>
+  <si>
+    <t>81U Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81U Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81RFRP
+[Hz/Sec]</t>
+  </si>
+  <si>
+    <t>81RF Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81O Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81O Trip Delay [Sec]</t>
   </si>
 </sst>
 </file>
@@ -454,6 +477,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>134305</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16351624" y="1757082"/>
+          <a:ext cx="3254022" cy="2568163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -744,36 +805,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:V4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
-    <col min="5" max="6" width="17.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="18" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="17" style="7" customWidth="1"/>
-    <col min="12" max="15" width="12.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="7" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="7" customWidth="1"/>
-    <col min="23" max="24" width="17.28515625" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="15" width="12.109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13" style="7" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="7" customWidth="1"/>
+    <col min="20" max="21" width="9.109375" style="7"/>
+    <col min="22" max="22" width="11.109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" style="7" customWidth="1"/>
+    <col min="26" max="27" width="12.109375" style="7" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="13" style="7" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="7" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9.109375" style="7"/>
+    <col min="36" max="36" width="11.109375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="10.5546875" style="7" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -819,29 +892,71 @@
       <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="AD1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -888,28 +1003,70 @@
         <v>1.2</v>
       </c>
       <c r="P2" s="7">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7">
+        <v>66</v>
+      </c>
+      <c r="S2" s="7">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
+      <c r="U2" s="7">
+        <v>57</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="7">
         <v>20</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="X2" s="7">
         <v>0</v>
       </c>
-      <c r="R2" s="12">
+      <c r="Y2" s="12">
         <v>0.60140653040586012</v>
       </c>
-      <c r="S2" s="7">
-        <v>1</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
         <v>0.5</v>
       </c>
-      <c r="V2" s="7">
+      <c r="AC2" s="7">
         <v>1.2</v>
       </c>
+      <c r="AD2" s="7">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -956,28 +1113,70 @@
         <v>1.2</v>
       </c>
       <c r="P3" s="7">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7">
+        <v>66</v>
+      </c>
+      <c r="S3" s="7">
+        <v>2</v>
+      </c>
+      <c r="T3" s="7">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7">
+        <v>57</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="7">
         <v>20</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="X3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="12">
+      <c r="Y3" s="12">
         <v>0.60140653040586012</v>
       </c>
-      <c r="S3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7">
-        <v>1</v>
-      </c>
-      <c r="U3" s="7">
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
         <v>0.5</v>
       </c>
-      <c r="V3" s="7">
+      <c r="AC3" s="7">
         <v>1.2</v>
       </c>
+      <c r="AD3" s="7">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1024,56 +1223,98 @@
         <v>1.2</v>
       </c>
       <c r="P4" s="7">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>2</v>
+      </c>
+      <c r="R4" s="7">
+        <v>66</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2</v>
+      </c>
+      <c r="T4" s="7">
+        <v>2</v>
+      </c>
+      <c r="U4" s="7">
+        <v>57</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="7">
         <v>20</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="X4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="12">
+      <c r="Y4" s="12">
         <v>0.60140653040586012</v>
       </c>
-      <c r="S4" s="7">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7">
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
         <v>0.5</v>
       </c>
-      <c r="V4" s="7">
+      <c r="AC4" s="7">
         <v>1.2</v>
       </c>
+      <c r="AD4" s="7">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F0_relay_banshee.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F0_relay_banshee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1068" yWindow="-336" windowWidth="28836" windowHeight="5100"/>
+    <workbookView xWindow="-1065" yWindow="-330" windowWidth="28830" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -808,42 +808,42 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AJ4"/>
+      <selection activeCell="AH2" sqref="AH2:AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="7" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="18" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="7" customWidth="1"/>
     <col min="11" max="11" width="17" style="7" customWidth="1"/>
-    <col min="12" max="15" width="12.109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="7" customWidth="1"/>
+    <col min="12" max="15" width="12.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
     <col min="17" max="17" width="13" style="7" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="7" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="7"/>
-    <col min="22" max="22" width="11.109375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="18.109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" style="7" customWidth="1"/>
-    <col min="26" max="27" width="12.109375" style="7" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="7" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="7"/>
+    <col min="22" max="22" width="11.140625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="7" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="7" customWidth="1"/>
     <col min="31" max="31" width="13" style="7" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="7" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" style="7" customWidth="1"/>
-    <col min="34" max="35" width="9.109375" style="7"/>
-    <col min="36" max="36" width="11.109375" style="7" customWidth="1"/>
-    <col min="37" max="37" width="10.5546875" style="7" customWidth="1"/>
-    <col min="38" max="16384" width="9.109375" style="7"/>
+    <col min="32" max="32" width="11.7109375" style="7" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="7" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="7"/>
+    <col min="36" max="36" width="11.140625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="10.5703125" style="7" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1015,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="T2" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U2" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V2" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="7">
         <v>20</v>
@@ -1057,16 +1057,16 @@
         <v>2</v>
       </c>
       <c r="AH2" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ2" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1125,13 +1125,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U3" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V3" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="7">
         <v>20</v>
@@ -1167,16 +1167,16 @@
         <v>2</v>
       </c>
       <c r="AH3" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1235,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U4" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V4" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W4" s="7">
         <v>20</v>
@@ -1277,44 +1277,44 @@
         <v>2</v>
       </c>
       <c r="AH4" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI4" s="7">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="7">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
